--- a/public/templates/salesman-upload-template.xlsx
+++ b/public/templates/salesman-upload-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projects\sto-online\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.renon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C9481-3E73-468F-8007-F96E722255A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C8D9B-E2F6-4945-9980-A782F6733B81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{E82108C3-8853-416F-B2C7-A53AFC4F2944}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>CODE</t>
   </si>
@@ -33,23 +33,38 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>AREA</t>
-  </si>
-  <si>
     <t>SAM</t>
   </si>
   <si>
     <t>SAMPLE</t>
   </si>
   <si>
-    <t>MAIN</t>
+    <t>TYPE OF SALESMAN</t>
+  </si>
+  <si>
+    <t>TYPES OF SALESMAN</t>
+  </si>
+  <si>
+    <t>DIRECT BOOKING</t>
+  </si>
+  <si>
+    <t>VAN SALESMAN</t>
+  </si>
+  <si>
+    <t>PRE-BOOKING</t>
+  </si>
+  <si>
+    <t>DISTRICT CODE</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +85,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,8 +106,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,12 +121,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -107,6 +193,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,21 +525,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE22F41E-EC5B-4A98-8AE6-B8D287DD19F7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -446,18 +550,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
